--- a/data_year/zb/住宿和餐饮业/连锁餐饮企业/按登记注册类型和行业分连锁餐饮企业年末从业人数.xlsx
+++ b/data_year/zb/住宿和餐饮业/连锁餐饮企业/按登记注册类型和行业分连锁餐饮企业年末从业人数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,1525 +593,1111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.4</v>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>7.6</v>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0.6</v>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>35</v>
+      </c>
+      <c r="N2" t="n">
+        <v>27.9</v>
+      </c>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>7.7</v>
+      </c>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.5</v>
+      </c>
       <c r="AD2" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="AE2" t="inlineStr"/>
+        <v>70.6099</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.1</v>
+      </c>
       <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.8289</v>
+        <v>0.227</v>
       </c>
       <c r="C3" t="n">
-        <v>5.5164</v>
+        <v>11.2376</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>5.1014</v>
+        <v>8.392899999999999</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.0825</v>
+        <v>0.2236</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6183</v>
+        <v>0.9053</v>
       </c>
       <c r="I3" t="n">
-        <v>24.8604</v>
+        <v>28.593</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1324</v>
+        <v>0.2632</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2608</v>
+        <v>0.1147</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.56</v>
       </c>
       <c r="M3" t="n">
-        <v>19.8589</v>
+        <v>46.6102</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5223</v>
+        <v>30.5856</v>
       </c>
       <c r="O3" t="n">
-        <v>20.6498</v>
+        <v>45.5175</v>
       </c>
       <c r="P3" t="n">
-        <v>5.2338</v>
+        <v>8.6561</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.7924</v>
+        <v>35.8094</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1801</v>
+        <v>0.0546</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3863</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>3.4542</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.3986</v>
+      </c>
       <c r="U3" t="n">
-        <v>5.4236</v>
+        <v>8.0913</v>
       </c>
       <c r="V3" t="n">
-        <v>3.8572</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.3188</v>
-      </c>
+        <v>4.1839</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>15.0893</v>
+        <v>12.5789</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.0101</v>
+        <v>0.3857</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.598</v>
+        <v>1.0482</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.0162</v>
+        <v>14.0128</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1795</v>
+        <v>0.1312</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.0537</v>
+        <v>5.3722</v>
       </c>
       <c r="AD3" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
+        <v>83.2945</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0824</v>
+      </c>
       <c r="AF3" t="n">
-        <v>1.0824</v>
+        <v>1.0623</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.8934</v>
+        <v>0.153</v>
       </c>
       <c r="C4" t="n">
-        <v>5.3313</v>
+        <v>11.2485</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>5.9503</v>
+        <v>8.380800000000001</v>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>0.0985</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1.1162</v>
+        <v>0.8327</v>
       </c>
       <c r="I4" t="n">
-        <v>28.6021</v>
+        <v>29.0318</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1631</v>
+        <v>0.2645</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2848</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.968</v>
-      </c>
+        <v>0.229</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>25.8545</v>
+        <v>43.3038</v>
       </c>
       <c r="N4" t="n">
-        <v>10.6618</v>
+        <v>31.9023</v>
       </c>
       <c r="O4" t="n">
-        <v>21.8529</v>
+        <v>45.9727</v>
       </c>
       <c r="P4" t="n">
-        <v>6.1134</v>
+        <v>8.645300000000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.371</v>
+        <v>32.182</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0209</v>
+        <v>0.0852</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5986</v>
+        <v>3.2064</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2.8318</v>
+        <v>8.218</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2123</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.2539</v>
-      </c>
+        <v>4.9184</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>14.4457</v>
+        <v>13.2765</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.7129</v>
+        <v>0.5357</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.0077</v>
+        <v>1.1219</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.4202</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.4104</v>
-      </c>
+        <v>14.9409</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>1.1874</v>
+        <v>5.0816</v>
       </c>
       <c r="AD4" t="n">
-        <v>55.7</v>
+        <v>80.5536</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.076</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9483</v>
+        <v>1.5662</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6331</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>5.1286</v>
+        <v>8.2197</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>9.9297</v>
+        <v>8.755699999999999</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.2076</v>
+        <v>0.0425</v>
       </c>
       <c r="H5" t="n">
-        <v>0.86</v>
+        <v>0.8389</v>
       </c>
       <c r="I5" t="n">
-        <v>28.6666</v>
+        <v>28.507</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1648</v>
+        <v>0.2174</v>
       </c>
       <c r="K5" t="n">
-        <v>0.018</v>
+        <v>0.2765</v>
       </c>
       <c r="L5" t="n">
-        <v>3.9041</v>
+        <v>0.0411</v>
       </c>
       <c r="M5" t="n">
-        <v>25.4582</v>
+        <v>43.8317</v>
       </c>
       <c r="N5" t="n">
-        <v>15.7924</v>
+        <v>35.4849</v>
       </c>
       <c r="O5" t="n">
-        <v>22.6631</v>
+        <v>45.0598</v>
       </c>
       <c r="P5" t="n">
-        <v>9.9297</v>
+        <v>8.973100000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.8907</v>
+        <v>32.5887</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1028</v>
+        <v>0.0615</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5579</v>
+        <v>2.8422</v>
       </c>
       <c r="T5" t="n">
-        <v>1.5076</v>
+        <v>0.0049</v>
       </c>
       <c r="U5" t="n">
-        <v>4.618</v>
+        <v>7.9728</v>
       </c>
       <c r="V5" t="n">
-        <v>2.4497</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.0618</v>
-      </c>
+        <v>5.0642</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>9.3027</v>
+        <v>12.8169</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.1002</v>
+        <v>0.541</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2065</v>
+        <v>0.9165</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.6712</v>
+        <v>14.2744</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1932</v>
+        <v>0.0262</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5751</v>
+        <v>4.8463</v>
       </c>
       <c r="AD5" t="n">
-        <v>62.5531</v>
+        <v>80.3115</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0718</v>
+        <v>0.068</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.329</v>
+        <v>1.8241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6704</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>6.6474</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>7.5855</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6581</v>
+      </c>
       <c r="E6" t="n">
-        <v>9.0745</v>
+        <v>8.8551</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.196</v>
+        <v>0.0436</v>
       </c>
       <c r="H6" t="n">
-        <v>1.3454</v>
+        <v>0.8556</v>
       </c>
       <c r="I6" t="n">
-        <v>28.9046</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>27.7567</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.171</v>
+      </c>
       <c r="K6" t="n">
-        <v>0.0164</v>
+        <v>0.2829</v>
       </c>
       <c r="L6" t="n">
-        <v>3.9989</v>
+        <v>0.0253</v>
       </c>
       <c r="M6" t="n">
-        <v>31.8315</v>
+        <v>39.5104</v>
       </c>
       <c r="N6" t="n">
-        <v>20.5148</v>
+        <v>31.1565</v>
       </c>
       <c r="O6" t="n">
-        <v>29.4798</v>
+        <v>44.6394</v>
       </c>
       <c r="P6" t="n">
-        <v>9.0745</v>
+        <v>9.0261</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.8783</v>
+        <v>30.116</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1191</v>
+        <v>0.0512</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7883</v>
+        <v>2.939</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5704</v>
+        <v>0.0065</v>
       </c>
       <c r="U6" t="n">
-        <v>5.3383</v>
+        <v>10.7325</v>
       </c>
       <c r="V6" t="n">
-        <v>2.8605</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.1098</v>
-      </c>
+        <v>7.7358</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>9.798400000000001</v>
+        <v>12.3457</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.168</v>
+        <v>0.5606</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5039</v>
+        <v>0.785</v>
       </c>
       <c r="AA6" t="n">
-        <v>12.5801</v>
+        <v>13.6913</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1901</v>
+        <v>0.0221</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.7912</v>
+        <v>4.623</v>
       </c>
       <c r="AD6" t="n">
-        <v>66.0744</v>
+        <v>77.9996</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0563</v>
+        <v>0.0677</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.3709</v>
+        <v>2.3886</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6734</v>
+        <v>0.09</v>
       </c>
       <c r="C7" t="n">
-        <v>5.9539</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>6.613</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7189</v>
+      </c>
       <c r="E7" t="n">
-        <v>9.830500000000001</v>
+        <v>9.7462</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.1477</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>0.036</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7954</v>
+      </c>
       <c r="I7" t="n">
-        <v>28.7754</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>29.7853</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2016</v>
+      </c>
       <c r="K7" t="n">
-        <v>0.1041</v>
+        <v>0.2903</v>
       </c>
       <c r="L7" t="n">
-        <v>4.798</v>
+        <v>0.0001</v>
       </c>
       <c r="M7" t="n">
-        <v>30.8556</v>
+        <v>30.3189</v>
       </c>
       <c r="N7" t="n">
-        <v>19.4303</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
+        <v>22.8969</v>
+      </c>
+      <c r="O7" t="n">
+        <v>37.9106</v>
+      </c>
       <c r="P7" t="n">
-        <v>9.830500000000001</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+        <v>9.947800000000001</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>29.523</v>
+      </c>
       <c r="R7" t="n">
-        <v>0.2283</v>
+        <v>0.0526</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8299</v>
+        <v>2.5202</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8235</v>
+        <v>0.0029</v>
       </c>
       <c r="U7" t="n">
-        <v>5.5527</v>
+        <v>11.2579</v>
       </c>
       <c r="V7" t="n">
-        <v>2.671</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.1744</v>
-      </c>
+        <v>8.6822</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>11.1719</v>
+        <v>11.2347</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4032</v>
+        <v>0.3801</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6347</v>
+        <v>0.5949</v>
       </c>
       <c r="AA7" t="n">
-        <v>12.3842</v>
+        <v>12.2097</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.8045</v>
+        <v>0.0208</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.4012</v>
+        <v>7.2154</v>
       </c>
       <c r="AD7" t="n">
-        <v>65.1837</v>
+        <v>71.3621</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.1032</v>
-      </c>
-      <c r="AF7" t="inlineStr"/>
+        <v>0.0653</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>3.1331</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="C8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>5.9409</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9055</v>
+      </c>
       <c r="E8" t="n">
-        <v>7.6</v>
+        <v>9.7864</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>0.0279</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8893</v>
+      </c>
       <c r="I8" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>29.9234</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1518</v>
+      </c>
       <c r="K8" t="n">
-        <v>0.2</v>
+        <v>0.367</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>32.1858</v>
       </c>
       <c r="N8" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
+        <v>25.2493</v>
+      </c>
+      <c r="O8" t="n">
+        <v>41.4761</v>
+      </c>
       <c r="P8" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+        <v>9.9382</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>29.4028</v>
+      </c>
       <c r="R8" t="n">
-        <v>0.3</v>
+        <v>0.0538</v>
       </c>
       <c r="S8" t="n">
-        <v>2.8</v>
+        <v>3.2098</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2</v>
+        <v>0.093</v>
       </c>
       <c r="U8" t="n">
-        <v>6.5</v>
+        <v>13.4844</v>
       </c>
       <c r="V8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.1</v>
-      </c>
+        <v>10.1278</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>11.7</v>
+        <v>11.8517</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4</v>
+        <v>0.3513</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.9</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="AA8" t="n">
-        <v>13.1</v>
+        <v>12.2856</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1</v>
+        <v>0.0171</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>7.2173</v>
       </c>
       <c r="AD8" t="n">
-        <v>70.6099</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF8" t="inlineStr"/>
+        <v>0.0703</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>3.8254</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.227</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>11.2376</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>6.1684</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0027</v>
+      </c>
       <c r="E9" t="n">
-        <v>8.392899999999999</v>
+        <v>8.611700000000001</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>0.2236</v>
+        <v>0.0072</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9053</v>
+        <v>0.6304999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>28.593</v>
+        <v>27.1543</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2632</v>
+        <v>0.1299</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1147</v>
+        <v>0.2978</v>
       </c>
       <c r="L9" t="n">
-        <v>4.56</v>
+        <v>0.9777</v>
       </c>
       <c r="M9" t="n">
-        <v>46.6102</v>
+        <v>32.4947</v>
       </c>
       <c r="N9" t="n">
-        <v>30.5856</v>
+        <v>24.3459</v>
       </c>
       <c r="O9" t="n">
-        <v>45.5175</v>
+        <v>45.0969</v>
       </c>
       <c r="P9" t="n">
-        <v>8.6561</v>
+        <v>8.7416</v>
       </c>
       <c r="Q9" t="n">
-        <v>35.8094</v>
+        <v>27.7259</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0546</v>
+        <v>0.0583</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4542</v>
+        <v>3.9786</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3986</v>
+        <v>0.0537</v>
       </c>
       <c r="U9" t="n">
-        <v>8.0913</v>
+        <v>18.3549</v>
       </c>
       <c r="V9" t="n">
-        <v>4.1839</v>
+        <v>14.2643</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>12.5789</v>
+        <v>11.933</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3857</v>
+        <v>0.445</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.0482</v>
+        <v>0.0694</v>
       </c>
       <c r="AA9" t="n">
-        <v>14.0128</v>
+        <v>12.4474</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1312</v>
+        <v>0.0267</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.3722</v>
+        <v>5.5776</v>
       </c>
       <c r="AD9" t="n">
-        <v>83.2945</v>
+        <v>78.0039</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0824</v>
+        <v>0.056</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.0623</v>
+        <v>4.5506</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.153</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>11.2485</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>8.583299999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.0031</v>
+      </c>
       <c r="E10" t="n">
-        <v>8.380800000000001</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+        <v>8.5383</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0049</v>
+      </c>
       <c r="H10" t="n">
-        <v>0.8327</v>
+        <v>0.448</v>
       </c>
       <c r="I10" t="n">
-        <v>29.0318</v>
+        <v>27.5771</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2645</v>
+        <v>0.0166</v>
       </c>
       <c r="K10" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>0.2829</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8673</v>
+      </c>
       <c r="M10" t="n">
-        <v>43.3038</v>
+        <v>39.1908</v>
       </c>
       <c r="N10" t="n">
-        <v>31.9023</v>
+        <v>27.7371</v>
       </c>
       <c r="O10" t="n">
-        <v>45.9727</v>
+        <v>49.631</v>
       </c>
       <c r="P10" t="n">
-        <v>8.645300000000001</v>
+        <v>8.5549</v>
       </c>
       <c r="Q10" t="n">
-        <v>32.182</v>
+        <v>32.8709</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0852</v>
+        <v>0.0522</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2064</v>
-      </c>
-      <c r="T10" t="inlineStr"/>
+        <v>4.3336</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.1148</v>
+      </c>
       <c r="U10" t="n">
-        <v>8.218</v>
+        <v>22.5091</v>
       </c>
       <c r="V10" t="n">
-        <v>4.9184</v>
+        <v>18</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>13.2765</v>
+        <v>12.745</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5357</v>
+        <v>0.2968</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.1219</v>
+        <v>0.0451</v>
       </c>
       <c r="AA10" t="n">
-        <v>14.9409</v>
-      </c>
-      <c r="AB10" t="inlineStr"/>
+        <v>13.0869</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0259</v>
+      </c>
       <c r="AC10" t="n">
-        <v>5.0816</v>
+        <v>5.5736</v>
       </c>
       <c r="AD10" t="n">
-        <v>80.5536</v>
+        <v>89.3</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.076</v>
+        <v>0.048</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.5662</v>
+        <v>6.3271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.08599999999999999</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>8.2197</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>8.342599999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.9631</v>
+      </c>
       <c r="E11" t="n">
-        <v>8.755699999999999</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>11.185</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0089</v>
+      </c>
       <c r="G11" t="n">
-        <v>0.0425</v>
+        <v>0.0389</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8389</v>
+        <v>0.4101</v>
       </c>
       <c r="I11" t="n">
-        <v>28.507</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.2174</v>
-      </c>
+        <v>26.8357</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>0.2765</v>
+        <v>0.2438</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0411</v>
+        <v>0.8431999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>43.8317</v>
+        <v>42.4788</v>
       </c>
       <c r="N11" t="n">
-        <v>35.4849</v>
+        <v>31.3299</v>
       </c>
       <c r="O11" t="n">
-        <v>45.0598</v>
+        <v>52.984</v>
       </c>
       <c r="P11" t="n">
-        <v>8.973100000000001</v>
+        <v>11.185</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.5887</v>
+        <v>32.4635</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0615</v>
+        <v>0.0626</v>
       </c>
       <c r="S11" t="n">
-        <v>2.8422</v>
+        <v>3.9944</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0049</v>
+        <v>0.1073</v>
       </c>
       <c r="U11" t="n">
-        <v>7.9728</v>
+        <v>24.227</v>
       </c>
       <c r="V11" t="n">
-        <v>5.0642</v>
-      </c>
-      <c r="W11" t="inlineStr"/>
+        <v>20.0538</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.0042</v>
+      </c>
       <c r="X11" t="n">
-        <v>12.8169</v>
+        <v>10.0499</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.541</v>
+        <v>0.2577</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.9165</v>
+        <v>0.0349</v>
       </c>
       <c r="AA11" t="n">
-        <v>14.2744</v>
+        <v>10.3467</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0262</v>
+        <v>0.0272</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.8463</v>
+        <v>4.9466</v>
       </c>
       <c r="AD11" t="n">
-        <v>80.3115</v>
+        <v>93.5415</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.068</v>
+        <v>0.0475</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.8241</v>
+        <v>7.6839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.08500000000000001</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>7.5855</v>
+        <v>8.4472</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6581</v>
+        <v>1.9083</v>
       </c>
       <c r="E12" t="n">
-        <v>8.8551</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>13.2785</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0062</v>
+      </c>
       <c r="G12" t="n">
-        <v>0.0436</v>
+        <v>0.0233</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8556</v>
+        <v>5.4948</v>
       </c>
       <c r="I12" t="n">
-        <v>27.7567</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.171</v>
-      </c>
+        <v>28.1433</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>0.2829</v>
+        <v>0.2055</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0253</v>
+        <v>0.9608</v>
       </c>
       <c r="M12" t="n">
-        <v>39.5104</v>
+        <v>44.4088</v>
       </c>
       <c r="N12" t="n">
-        <v>31.1565</v>
+        <v>33.0925</v>
       </c>
       <c r="O12" t="n">
-        <v>44.6394</v>
+        <v>55.891</v>
       </c>
       <c r="P12" t="n">
-        <v>9.0261</v>
+        <v>13.2785</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.116</v>
+        <v>28.6332</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0512</v>
+        <v>0.1354</v>
       </c>
       <c r="S12" t="n">
-        <v>2.939</v>
+        <v>3.6816</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0065</v>
+        <v>0.0823</v>
       </c>
       <c r="U12" t="n">
-        <v>10.7325</v>
+        <v>24.6216</v>
       </c>
       <c r="V12" t="n">
-        <v>7.7358</v>
+        <v>20.7161</v>
       </c>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="n">
-        <v>12.3457</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.5606</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.785</v>
-      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>13.6913</v>
+        <v>10.099</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0221</v>
+        <v>0.0261</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.623</v>
+        <v>4.4431</v>
       </c>
       <c r="AD12" t="n">
-        <v>77.9996</v>
+        <v>97.1737</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0677</v>
+        <v>0.0451</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.3886</v>
+        <v>7.132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.09</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>6.613</v>
+        <v>8.9556</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7189</v>
+        <v>1.6432</v>
       </c>
       <c r="E13" t="n">
-        <v>9.7462</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>7.8557</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0233</v>
+      </c>
       <c r="G13" t="n">
-        <v>0.036</v>
+        <v>0.0237</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7954</v>
+        <v>5.6595</v>
       </c>
       <c r="I13" t="n">
-        <v>29.7853</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.2016</v>
-      </c>
+        <v>31.0052</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>0.2903</v>
+        <v>0.2035</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001</v>
+        <v>1.4065</v>
       </c>
       <c r="M13" t="n">
-        <v>30.3189</v>
+        <v>47.6111</v>
       </c>
       <c r="N13" t="n">
-        <v>22.8969</v>
+        <v>35.6058</v>
       </c>
       <c r="O13" t="n">
-        <v>37.9106</v>
+        <v>59.2515</v>
       </c>
       <c r="P13" t="n">
-        <v>9.947800000000001</v>
+        <v>7.8557</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.523</v>
+        <v>31.2464</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0526</v>
+        <v>0.1502</v>
       </c>
       <c r="S13" t="n">
-        <v>2.5202</v>
+        <v>4.1374</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0029</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="U13" t="n">
-        <v>11.2579</v>
+        <v>27.4167</v>
       </c>
       <c r="V13" t="n">
-        <v>8.6822</v>
+        <v>23.0242</v>
       </c>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="n">
-        <v>11.2347</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.3801</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.5949</v>
-      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>12.2097</v>
+        <v>18.2073</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0208</v>
+        <v>0.0244</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2154</v>
+        <v>4.6273</v>
       </c>
       <c r="AD13" t="n">
-        <v>71.3621</v>
+        <v>106.033</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0653</v>
+        <v>0.0385</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.1331</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5.9409</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.9055</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.7864</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>0.0279</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.8893</v>
-      </c>
-      <c r="I14" t="n">
-        <v>29.9234</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.1518</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="M14" t="n">
-        <v>32.1858</v>
-      </c>
-      <c r="N14" t="n">
-        <v>25.2493</v>
-      </c>
-      <c r="O14" t="n">
-        <v>41.4761</v>
-      </c>
-      <c r="P14" t="n">
-        <v>9.9382</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>29.4028</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.0538</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.2098</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="U14" t="n">
-        <v>13.4844</v>
-      </c>
-      <c r="V14" t="n">
-        <v>10.1278</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="n">
-        <v>11.8517</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.3513</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.08260000000000001</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>12.2856</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.0171</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.2173</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.0703</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>3.8254</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>6.1684</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.0027</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8.611700000000001</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.6304999999999999</v>
-      </c>
-      <c r="I15" t="n">
-        <v>27.1543</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.1299</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.2978</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.9777</v>
-      </c>
-      <c r="M15" t="n">
-        <v>32.4947</v>
-      </c>
-      <c r="N15" t="n">
-        <v>24.3459</v>
-      </c>
-      <c r="O15" t="n">
-        <v>45.0969</v>
-      </c>
-      <c r="P15" t="n">
-        <v>8.7416</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>27.7259</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.0583</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.9786</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.0537</v>
-      </c>
-      <c r="U15" t="n">
-        <v>18.3549</v>
-      </c>
-      <c r="V15" t="n">
-        <v>14.2643</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>11.933</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.0694</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>12.4474</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.0267</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>5.5776</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>78.0039</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>4.5506</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>8.583299999999999</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.0031</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.5383</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.008500000000000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="I16" t="n">
-        <v>27.5771</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.0166</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2829</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.8673</v>
-      </c>
-      <c r="M16" t="n">
-        <v>39.1908</v>
-      </c>
-      <c r="N16" t="n">
-        <v>27.7371</v>
-      </c>
-      <c r="O16" t="n">
-        <v>49.631</v>
-      </c>
-      <c r="P16" t="n">
-        <v>8.5549</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>32.8709</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.0522</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.3336</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.1148</v>
-      </c>
-      <c r="U16" t="n">
-        <v>22.5091</v>
-      </c>
-      <c r="V16" t="n">
-        <v>18</v>
-      </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="n">
-        <v>12.745</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.2968</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.0451</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>13.0869</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.0259</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>5.5736</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>6.3271</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>8.342599999999999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.9631</v>
-      </c>
-      <c r="E17" t="n">
-        <v>11.185</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.0389</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.4101</v>
-      </c>
-      <c r="I17" t="n">
-        <v>26.8357</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>0.2438</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.8431999999999999</v>
-      </c>
-      <c r="M17" t="n">
-        <v>42.4788</v>
-      </c>
-      <c r="N17" t="n">
-        <v>31.3299</v>
-      </c>
-      <c r="O17" t="n">
-        <v>52.984</v>
-      </c>
-      <c r="P17" t="n">
-        <v>11.185</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>32.4635</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.0626</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.9944</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.1073</v>
-      </c>
-      <c r="U17" t="n">
-        <v>24.227</v>
-      </c>
-      <c r="V17" t="n">
-        <v>20.0538</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="X17" t="n">
-        <v>10.0499</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.2577</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.0349</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>10.3467</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.0272</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>4.9466</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>93.5415</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.0475</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>7.6839</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>8.4472</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.9083</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13.2785</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0233</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5.4948</v>
-      </c>
-      <c r="I18" t="n">
-        <v>28.1433</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0.2055</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.9608</v>
-      </c>
-      <c r="M18" t="n">
-        <v>44.4088</v>
-      </c>
-      <c r="N18" t="n">
-        <v>33.0925</v>
-      </c>
-      <c r="O18" t="n">
-        <v>55.891</v>
-      </c>
-      <c r="P18" t="n">
-        <v>13.2785</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>28.6332</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.1354</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.6816</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.0823</v>
-      </c>
-      <c r="U18" t="n">
-        <v>24.6216</v>
-      </c>
-      <c r="V18" t="n">
-        <v>20.7161</v>
-      </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>10.099</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>4.4431</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>97.1737</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.0451</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>7.132</v>
+        <v>9.8508</v>
       </c>
     </row>
   </sheetData>
